--- a/Traits_Mod.xlsx
+++ b/Traits_Mod.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shane\Documents\GitHub\TheCK2Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -297,12 +302,15 @@
   </si>
   <si>
     <t>Opposite of Slow</t>
+  </si>
+  <si>
+    <t>100 rationality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,14 +401,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -438,9 +449,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,9 +484,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,9 +536,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -686,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1361,9 @@
       <c r="M18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="N18" s="3"/>
+      <c r="N18" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="O18" s="3" t="s">
         <v>64</v>
       </c>

--- a/Traits_Mod.xlsx
+++ b/Traits_Mod.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -283,9 +283,6 @@
     <t>+20.00</t>
   </si>
   <si>
-    <t>+15 General</t>
-  </si>
-  <si>
     <t>Available through event.</t>
   </si>
   <si>
@@ -305,6 +302,12 @@
   </si>
   <si>
     <t>100 rationality</t>
+  </si>
+  <si>
+    <t>+1000%</t>
+  </si>
+  <si>
+    <t>+50 General</t>
   </si>
 </sst>
 </file>
@@ -731,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,15 +1357,17 @@
       <c r="J18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="L18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="N18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>64</v>
@@ -1373,36 +1378,36 @@
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2">
         <v>316</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>53</v>

--- a/Traits_Mod.xlsx
+++ b/Traits_Mod.xlsx
@@ -59,9 +59,6 @@
     <t>Rebellious</t>
   </si>
   <si>
-    <t>loyalist</t>
-  </si>
-  <si>
     <t>rebel</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
   </si>
   <si>
     <t>blood_of_shane</t>
-  </si>
-  <si>
-    <t>+5 Vassal</t>
   </si>
   <si>
     <t>Descendant of Olivarius</t>
@@ -308,6 +302,13 @@
   </si>
   <si>
     <t>+50 General</t>
+  </si>
+  <si>
+    <t>loyal</t>
+  </si>
+  <si>
+    <t>-8 Vassal
++17 Same Trait</t>
   </si>
 </sst>
 </file>
@@ -383,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -392,6 +393,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -734,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +749,7 @@
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="4" customWidth="1"/>
     <col min="13" max="13" width="24.140625" customWidth="1"/>
     <col min="14" max="14" width="20.42578125" customWidth="1"/>
     <col min="15" max="15" width="18.5703125" customWidth="1"/>
@@ -780,20 +785,20 @@
       <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
+      <c r="L2" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -804,30 +809,30 @@
         <v>300</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P3" s="2">
         <v>5</v>
@@ -841,34 +846,34 @@
         <v>301</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P4" s="2">
         <v>5</v>
@@ -876,30 +881,30 @@
     </row>
     <row r="5" spans="2:16" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>302</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P5" s="2">
         <v>10</v>
@@ -907,32 +912,32 @@
     </row>
     <row r="6" spans="2:16" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <v>303</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P6" s="2">
         <v>10</v>
@@ -940,17 +945,17 @@
     </row>
     <row r="7" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
         <v>304</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -958,12 +963,12 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P7" s="2">
         <v>10</v>
@@ -971,30 +976,30 @@
     </row>
     <row r="8" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2">
         <v>305</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P8" s="2">
         <v>10</v>
@@ -1002,30 +1007,30 @@
     </row>
     <row r="9" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2">
         <v>306</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P9" s="2">
         <v>10</v>
@@ -1033,34 +1038,34 @@
     </row>
     <row r="10" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2">
         <v>307</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P10" s="2">
         <v>5</v>
@@ -1068,16 +1073,16 @@
     </row>
     <row r="11" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2">
         <v>308</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1086,12 +1091,12 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P11" s="2">
         <v>-5</v>
@@ -1099,34 +1104,34 @@
     </row>
     <row r="12" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2">
         <v>309</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P12" s="2">
         <v>5</v>
@@ -1134,40 +1139,40 @@
     </row>
     <row r="13" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
         <v>310</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P13" s="2">
         <v>-4</v>
@@ -1175,44 +1180,44 @@
     </row>
     <row r="14" spans="2:16" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2">
         <v>311</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P14" s="2">
         <v>-35</v>
@@ -1220,40 +1225,40 @@
     </row>
     <row r="15" spans="2:16" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2">
         <v>312</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P15" s="2">
         <v>-20</v>
@@ -1261,38 +1266,38 @@
     </row>
     <row r="16" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2">
         <v>313</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="O16" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P16" s="2">
         <v>5</v>
@@ -1300,16 +1305,16 @@
     </row>
     <row r="17" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2">
         <v>314</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1318,12 +1323,12 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P17" s="2">
         <v>-4</v>
@@ -1331,46 +1336,46 @@
     </row>
     <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2">
         <v>315</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="K18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="N18" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P18" s="2">
         <v>1000</v>
@@ -1378,42 +1383,42 @@
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2">
         <v>316</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P19" s="2">
         <v>15</v>

--- a/Traits_Mod.xlsx
+++ b/Traits_Mod.xlsx
@@ -135,9 +135,6 @@
     <t>Cringey</t>
   </si>
   <si>
-    <t>cringe</t>
-  </si>
-  <si>
     <t>Funny</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
   </si>
   <si>
     <t>Autistic</t>
-  </si>
-  <si>
-    <t>autism</t>
   </si>
   <si>
     <t>-10%</t>
@@ -268,9 +262,6 @@
     <t>God</t>
   </si>
   <si>
-    <t>the_god</t>
-  </si>
-  <si>
     <t>+10</t>
   </si>
   <si>
@@ -309,6 +300,15 @@
   <si>
     <t>-8 Vassal
 +17 Same Trait</t>
+  </si>
+  <si>
+    <t>cringey</t>
+  </si>
+  <si>
+    <t>autistic</t>
+  </si>
+  <si>
+    <t>god</t>
   </si>
 </sst>
 </file>
@@ -740,7 +740,7 @@
   <dimension ref="B1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +795,7 @@
         <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>19</v>
@@ -809,7 +809,7 @@
         <v>300</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
@@ -832,7 +832,7 @@
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P3" s="2">
         <v>5</v>
@@ -873,7 +873,7 @@
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P4" s="2">
         <v>5</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="5" spans="2:16" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>302</v>
@@ -904,7 +904,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P5" s="2">
         <v>10</v>
@@ -937,7 +937,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P6" s="2">
         <v>10</v>
@@ -968,7 +968,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P7" s="2">
         <v>10</v>
@@ -999,7 +999,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P8" s="2">
         <v>10</v>
@@ -1030,7 +1030,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P9" s="2">
         <v>10</v>
@@ -1038,19 +1038,19 @@
     </row>
     <row r="10" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2">
         <v>307</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>15</v>
@@ -1060,12 +1060,12 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P10" s="2">
         <v>5</v>
@@ -1079,10 +1079,10 @@
         <v>308</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1091,12 +1091,12 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P11" s="2">
         <v>-5</v>
@@ -1104,13 +1104,13 @@
     </row>
     <row r="12" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2">
         <v>309</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>25</v>
@@ -1123,15 +1123,15 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P12" s="2">
         <v>5</v>
@@ -1139,13 +1139,13 @@
     </row>
     <row r="13" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2">
         <v>310</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>15</v>
@@ -1155,24 +1155,24 @@
         <v>13</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P13" s="2">
         <v>-4</v>
@@ -1180,44 +1180,44 @@
     </row>
     <row r="14" spans="2:16" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2">
         <v>311</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P14" s="2">
         <v>-35</v>
@@ -1225,40 +1225,40 @@
     </row>
     <row r="15" spans="2:16" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2">
         <v>312</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P15" s="2">
         <v>-20</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="16" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2">
         <v>313</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
@@ -1285,19 +1285,19 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="O16" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P16" s="2">
         <v>5</v>
@@ -1305,13 +1305,13 @@
     </row>
     <row r="17" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2">
         <v>314</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>15</v>
@@ -1323,12 +1323,12 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P17" s="2">
         <v>-4</v>
@@ -1336,46 +1336,46 @@
     </row>
     <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2">
         <v>315</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="N18" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P18" s="2">
         <v>1000</v>
@@ -1383,42 +1383,42 @@
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2">
         <v>316</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P19" s="2">
         <v>15</v>

--- a/Traits_Mod.xlsx
+++ b/Traits_Mod.xlsx
@@ -180,10 +180,6 @@
     <t>albino</t>
   </si>
   <si>
-    <t>-5 Attraction
--10 General</t>
-  </si>
-  <si>
     <t>+10 Attraction
 +5 General</t>
   </si>
@@ -309,6 +305,10 @@
   </si>
   <si>
     <t>god</t>
+  </si>
+  <si>
+    <t>-10 Attraction
+-5 General</t>
   </si>
 </sst>
 </file>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +795,7 @@
         <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>19</v>
@@ -809,7 +809,7 @@
         <v>300</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
@@ -832,7 +832,7 @@
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P3" s="2">
         <v>5</v>
@@ -873,7 +873,7 @@
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P4" s="2">
         <v>5</v>
@@ -904,7 +904,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P5" s="2">
         <v>10</v>
@@ -937,7 +937,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P6" s="2">
         <v>10</v>
@@ -968,7 +968,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P7" s="2">
         <v>10</v>
@@ -999,7 +999,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P8" s="2">
         <v>10</v>
@@ -1030,7 +1030,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="2">
         <v>10</v>
@@ -1038,13 +1038,13 @@
     </row>
     <row r="10" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2">
         <v>307</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
@@ -1060,12 +1060,12 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P10" s="2">
         <v>5</v>
@@ -1079,7 +1079,7 @@
         <v>308</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>39</v>
@@ -1091,12 +1091,12 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P11" s="2">
         <v>-5</v>
@@ -1126,12 +1126,12 @@
         <v>38</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P12" s="2">
         <v>5</v>
@@ -1145,7 +1145,7 @@
         <v>310</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>15</v>
@@ -1165,14 +1165,14 @@
         <v>41</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
         <v>48</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P13" s="2">
         <v>-4</v>
@@ -1186,7 +1186,7 @@
         <v>311</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>44</v>
@@ -1208,16 +1208,16 @@
         <v>45</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>49</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P14" s="2">
         <v>-35</v>
@@ -1245,20 +1245,20 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P15" s="2">
         <v>-20</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="16" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2">
         <v>313</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
@@ -1288,16 +1288,16 @@
         <v>38</v>
       </c>
       <c r="L16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="O16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P16" s="2">
         <v>5</v>
@@ -1305,13 +1305,13 @@
     </row>
     <row r="17" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="2">
         <v>314</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>15</v>
@@ -1323,12 +1323,12 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P17" s="2">
         <v>-4</v>
@@ -1336,46 +1336,46 @@
     </row>
     <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2">
         <v>315</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="N18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P18" s="2">
         <v>1000</v>
@@ -1383,42 +1383,42 @@
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="2">
         <v>316</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>49</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P19" s="2">
         <v>15</v>

--- a/Traits_Mod.xlsx
+++ b/Traits_Mod.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shane\Documents\GitHub\TheCK2Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -169,12 +164,6 @@
   </si>
   <si>
     <t>Albino</t>
-  </si>
-  <si>
-    <t>15% Inherit Chance</t>
-  </si>
-  <si>
-    <t>20% Inherit Chance</t>
   </si>
   <si>
     <t>albino</t>
@@ -204,9 +193,6 @@
 +100 Same Trait</t>
   </si>
   <si>
-    <t>5% Inherit Chance</t>
-  </si>
-  <si>
     <t>Congenital</t>
   </si>
   <si>
@@ -229,14 +215,7 @@
     <t>Opposite of Dwarf.</t>
   </si>
   <si>
-    <t>20% Inherit Chance
-+10.0% Moral</t>
-  </si>
-  <si>
     <t>downsyndrome</t>
-  </si>
-  <si>
-    <t>Needs Regent</t>
   </si>
   <si>
     <t>Racist</t>
@@ -264,9 +243,6 @@
     <t>+20.00</t>
   </si>
   <si>
-    <t>Available through event.</t>
-  </si>
-  <si>
     <t>Intelligent</t>
   </si>
   <si>
@@ -277,12 +253,6 @@
   </si>
   <si>
     <t>+10 General</t>
-  </si>
-  <si>
-    <t>Opposite of Slow</t>
-  </si>
-  <si>
-    <t>100 rationality</t>
   </si>
   <si>
     <t>+1000%</t>
@@ -309,12 +279,92 @@
   <si>
     <t>-10 Attraction
 -5 General</t>
+  </si>
+  <si>
+    <t>Opposite of Funny.</t>
+  </si>
+  <si>
+    <t>Opposite of Cringey.</t>
+  </si>
+  <si>
+    <t>Needs Regent.</t>
+  </si>
+  <si>
+    <t>-30 Rationality</t>
+  </si>
+  <si>
+    <t>Equalist</t>
+  </si>
+  <si>
+    <t>equalist</t>
+  </si>
+  <si>
+    <t>Opposite of Equalist.</t>
+  </si>
+  <si>
+    <t>Available through event. Immortal.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Sympathy for every Religion.</t>
+  </si>
+  <si>
+    <t>Rationality</t>
+  </si>
+  <si>
+    <t>+100 Rationality</t>
+  </si>
+  <si>
+    <t>Opposite of Slow, Imbecile and Genius.</t>
+  </si>
+  <si>
+    <t>Opposite of Racist, Zealous.</t>
+  </si>
+  <si>
+    <t>15% Inherit Chance. 
+30 % Both Parents
+1% Birth</t>
+  </si>
+  <si>
+    <t>25% Inherit Chance
+50% Both Parents
+Inbred.</t>
+  </si>
+  <si>
+    <t>5% Inherit Chance
+10% Both Parents
+2% Birth</t>
+  </si>
+  <si>
+    <t>20% Inherit Chance
+40% Both Parents
+1% Birth
++10.0% Moral</t>
+  </si>
+  <si>
+    <t>10% Inherit Chance.
+30% Both Parents
+Enables the Clever Ambush combat tactic.</t>
+  </si>
+  <si>
+    <t>+15 Rationality</t>
+  </si>
+  <si>
+    <t>-10 Ambition</t>
+  </si>
+  <si>
+    <t>+10 Ambition</t>
+  </si>
+  <si>
+    <t>Not random</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -398,6 +448,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,9 +470,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -457,9 +510,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,26 +545,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -544,26 +580,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -737,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P30"/>
+  <dimension ref="B1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,12 +770,13 @@
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="12" max="12" width="22.140625" style="4" customWidth="1"/>
     <col min="13" max="13" width="24.140625" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -795,13 +815,16 @@
         <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -809,7 +832,7 @@
         <v>300</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
@@ -832,13 +855,16 @@
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="2">
+        <v>103</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -873,13 +899,16 @@
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4" s="2">
+        <v>104</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>46</v>
       </c>
@@ -902,15 +931,18 @@
         <v>34</v>
       </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="2">
+      <c r="N5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
@@ -935,15 +967,18 @@
         <v>33</v>
       </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="N6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -966,15 +1001,18 @@
         <v>33</v>
       </c>
       <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" s="2">
+      <c r="N7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
@@ -997,15 +1035,18 @@
         <v>33</v>
       </c>
       <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P8" s="2">
+      <c r="N8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1028,23 +1069,26 @@
         <v>33</v>
       </c>
       <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="N9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2">
         <v>307</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
@@ -1060,18 +1104,23 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" s="2">
+      <c r="P10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -1079,7 +1128,7 @@
         <v>308</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>39</v>
@@ -1091,18 +1140,21 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M11" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="2">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1126,18 +1178,21 @@
         <v>38</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="2">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1145,7 +1200,7 @@
         <v>310</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>15</v>
@@ -1165,20 +1220,21 @@
         <v>41</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" s="2">
+        <v>97</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="2">
         <v>-4</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
@@ -1186,7 +1242,7 @@
         <v>311</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>44</v>
@@ -1208,22 +1264,23 @@
         <v>45</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" s="2">
+        <v>98</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q14" s="2">
         <v>-35</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -1231,7 +1288,7 @@
         <v>312</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>15</v>
@@ -1245,34 +1302,35 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" s="2">
+      <c r="Q15" s="2">
         <v>-20</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2">
         <v>313</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
@@ -1288,30 +1346,31 @@
         <v>38</v>
       </c>
       <c r="L16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C17" s="2">
         <v>314</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>15</v>
@@ -1323,125 +1382,153 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M17" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="N17" s="3"/>
-      <c r="O17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P17" s="2">
+      <c r="O17" s="3"/>
+      <c r="P17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" s="2">
         <v>-4</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2">
         <v>315</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="L18" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="N18" s="3"/>
       <c r="O18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2">
         <v>316</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" s="2">
+        <v>102</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q19" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
+    <row r="20" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="2">
+        <v>317</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="O20" s="3"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1456,9 +1543,10 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1473,9 +1561,10 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1490,9 +1579,10 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1507,9 +1597,10 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P24" s="3"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1524,9 +1615,10 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1541,9 +1633,10 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1558,9 +1651,10 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P27" s="3"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1575,9 +1669,10 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P28" s="3"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1592,9 +1687,10 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P29" s="3"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1609,7 +1705,8 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="2"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Traits_Mod.xlsx
+++ b/Traits_Mod.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
   <si>
     <t>ID</t>
   </si>
@@ -73,9 +73,6 @@
 +10 Spouse</t>
   </si>
   <si>
-    <t>-15 Liege</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -173,24 +170,10 @@
 +5 General</t>
   </si>
   <si>
-    <t>-15 General
--10 Attraction</t>
-  </si>
-  <si>
-    <t>-25 General
--100 Attraction
-+100 Same Trait</t>
-  </si>
-  <si>
     <t>-2.00</t>
   </si>
   <si>
     <t>-25%</t>
-  </si>
-  <si>
-    <t>-20 General
--50 Attraction
-+100 Same Trait</t>
   </si>
   <si>
     <t>Congenital</t>
@@ -287,9 +270,6 @@
     <t>Opposite of Cringey.</t>
   </si>
   <si>
-    <t>Needs Regent.</t>
-  </si>
-  <si>
     <t>-30 Rationality</t>
   </si>
   <si>
@@ -297,9 +277,6 @@
   </si>
   <si>
     <t>equalist</t>
-  </si>
-  <si>
-    <t>Opposite of Equalist.</t>
   </si>
   <si>
     <t>Available through event. Immortal.</t>
@@ -338,27 +315,57 @@
 2% Birth</t>
   </si>
   <si>
+    <t>10% Inherit Chance.
+30% Both Parents
+Enables the Clever Ambush combat tactic.</t>
+  </si>
+  <si>
+    <t>+15 Rationality</t>
+  </si>
+  <si>
+    <t>Not random</t>
+  </si>
+  <si>
     <t>20% Inherit Chance
 40% Both Parents
 1% Birth
-+10.0% Moral</t>
-  </si>
-  <si>
-    <t>10% Inherit Chance.
-30% Both Parents
-Enables the Clever Ambush combat tactic.</t>
-  </si>
-  <si>
-    <t>+15 Rationality</t>
-  </si>
-  <si>
-    <t>-10 Ambition</t>
-  </si>
-  <si>
-    <t>+10 Ambition</t>
-  </si>
-  <si>
-    <t>Not random</t>
+0.1 Damage</t>
+  </si>
+  <si>
+    <t>-20 Rationality</t>
+  </si>
+  <si>
+    <t>+20 Ambition
++10 Greed</t>
+  </si>
+  <si>
+    <t>-20 Ambition
++10 Honor</t>
+  </si>
+  <si>
+    <t>-15 Liege
+-25 Ambition</t>
+  </si>
+  <si>
+    <t>-15 Vassal
+-10 Attraction</t>
+  </si>
+  <si>
+    <t>-25 Vassal
+-100 Attraction
++100 Same Trait</t>
+  </si>
+  <si>
+    <t>-20 Vassal
+-50 Attraction
++100 Same Trait</t>
+  </si>
+  <si>
+    <t>Opposite of Genius, Intelligent.
+Needs Regent.</t>
+  </si>
+  <si>
+    <t>Opposite of Equalist, Sympathies.</t>
   </si>
 </sst>
 </file>
@@ -758,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,19 +816,19 @@
         <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -832,7 +839,7 @@
         <v>300</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
@@ -851,14 +858,14 @@
         <v>17</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="2">
         <v>5</v>
@@ -892,17 +899,17 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="2">
         <v>5</v>
@@ -910,33 +917,33 @@
     </row>
     <row r="5" spans="2:17" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2">
         <v>302</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="2">
         <v>10</v>
@@ -944,13 +951,13 @@
     </row>
     <row r="6" spans="2:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>303</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>
@@ -964,15 +971,15 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="2">
         <v>10</v>
@@ -980,17 +987,17 @@
     </row>
     <row r="7" spans="2:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2">
         <v>304</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -998,15 +1005,15 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="2">
         <v>10</v>
@@ -1014,33 +1021,33 @@
     </row>
     <row r="8" spans="2:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2">
         <v>305</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="2">
         <v>10</v>
@@ -1048,33 +1055,33 @@
     </row>
     <row r="9" spans="2:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2">
         <v>306</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="2">
         <v>10</v>
@@ -1082,19 +1089,19 @@
     </row>
     <row r="10" spans="2:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2">
         <v>307</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>15</v>
@@ -1104,17 +1111,17 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="2">
         <v>5</v>
@@ -1122,16 +1129,16 @@
     </row>
     <row r="11" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
         <v>308</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1140,15 +1147,15 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="2">
         <v>-2</v>
@@ -1156,16 +1163,16 @@
     </row>
     <row r="12" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
         <v>309</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1175,18 +1182,18 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="2">
         <v>5</v>
@@ -1194,13 +1201,13 @@
     </row>
     <row r="13" spans="2:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2">
         <v>310</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>15</v>
@@ -1210,25 +1217,25 @@
         <v>13</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="2">
         <v>-4</v>
@@ -1236,45 +1243,47 @@
     </row>
     <row r="14" spans="2:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2">
         <v>311</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="N14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="2">
         <v>-35</v>
@@ -1282,41 +1291,41 @@
     </row>
     <row r="15" spans="2:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2">
         <v>312</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="2">
         <v>-20</v>
@@ -1324,39 +1333,39 @@
     </row>
     <row r="16" spans="2:17" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2">
         <v>313</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q16" s="2">
         <v>5</v>
@@ -1364,13 +1373,13 @@
     </row>
     <row r="17" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2">
         <v>314</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>15</v>
@@ -1382,15 +1391,15 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="2">
         <v>-4</v>
@@ -1398,93 +1407,93 @@
     </row>
     <row r="18" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2">
         <v>315</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:17" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2">
         <v>316</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="P19" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="2">
         <v>15</v>
@@ -1492,37 +1501,37 @@
     </row>
     <row r="20" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2">
         <v>317</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="2">
         <v>5</v>

--- a/Traits_Mod.xlsx
+++ b/Traits_Mod.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19080" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="109">
   <si>
     <t>ID</t>
   </si>
@@ -176,9 +176,6 @@
     <t>-25%</t>
   </si>
   <si>
-    <t>Congenital</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -191,13 +188,6 @@
     <t>giant</t>
   </si>
   <si>
-    <t>+5 General
-+10 Attraction</t>
-  </si>
-  <si>
-    <t>Opposite of Dwarf.</t>
-  </si>
-  <si>
     <t>downsyndrome</t>
   </si>
   <si>
@@ -207,10 +197,6 @@
     <t>racist</t>
   </si>
   <si>
-    <t>+25 Same Trait
--25 Foreign Ethnicity</t>
-  </si>
-  <si>
     <t>Descendant of Deluigi</t>
   </si>
   <si>
@@ -221,9 +207,6 @@
   </si>
   <si>
     <t>+10</t>
-  </si>
-  <si>
-    <t>+20.00</t>
   </si>
   <si>
     <t>Intelligent</t>
@@ -279,16 +262,10 @@
     <t>equalist</t>
   </si>
   <si>
-    <t>Available through event. Immortal.</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>Sympathy for every Religion.</t>
-  </si>
-  <si>
-    <t>Rationality</t>
   </si>
   <si>
     <t>+100 Rationality</t>
@@ -310,26 +287,10 @@
 Inbred.</t>
   </si>
   <si>
-    <t>5% Inherit Chance
-10% Both Parents
-2% Birth</t>
-  </si>
-  <si>
-    <t>10% Inherit Chance.
-30% Both Parents
-Enables the Clever Ambush combat tactic.</t>
-  </si>
-  <si>
     <t>+15 Rationality</t>
   </si>
   <si>
     <t>Not random</t>
-  </si>
-  <si>
-    <t>20% Inherit Chance
-40% Both Parents
-1% Birth
-0.1 Damage</t>
   </si>
   <si>
     <t>-20 Rationality</t>
@@ -345,10 +306,6 @@
   <si>
     <t>-15 Liege
 -25 Ambition</t>
-  </si>
-  <si>
-    <t>-15 Vassal
--10 Attraction</t>
   </si>
   <si>
     <t>-25 Vassal
@@ -366,6 +323,59 @@
   </si>
   <si>
     <t>Opposite of Equalist, Sympathies.</t>
+  </si>
+  <si>
+    <t>-5 Vassal
+-15 Attraction</t>
+  </si>
+  <si>
+    <t>Personality</t>
+  </si>
+  <si>
+    <t>Opposite of Gregarious.</t>
+  </si>
+  <si>
+    <t>5% Inherit Chance
+15% Both Parents
+0,5% Birth</t>
+  </si>
+  <si>
+    <t>20% Inherit Chance
+40% Both Parents
+1% Birth</t>
+  </si>
+  <si>
+    <t>Opposite of Dwarf.
+0.1 Damage
++2 Personal Combat</t>
+  </si>
+  <si>
+    <t>+5 Vassal
++10 Attraction</t>
+  </si>
+  <si>
+    <t>+25 Same Trait
+-25 Infidel
+-15 Opposite</t>
+  </si>
+  <si>
+    <t>AI-Configuration</t>
+  </si>
+  <si>
+    <t>+10 Zeal</t>
+  </si>
+  <si>
+    <t>Available through event. Immortal.
++100 Personal Combat</t>
+  </si>
+  <si>
+    <t>10% Inherit Chance.
+30% Both Parents
+(Enables the Clever Ambush combat tactic.)</t>
+  </si>
+  <si>
+    <t>-5 Greed
+-5 Zeal</t>
   </si>
 </sst>
 </file>
@@ -766,7 +776,7 @@
   <dimension ref="B1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,12 +788,12 @@
     <col min="12" max="12" width="22.140625" style="4" customWidth="1"/>
     <col min="13" max="13" width="24.140625" customWidth="1"/>
     <col min="14" max="14" width="25.28515625" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
     <col min="16" max="16" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -822,10 +832,10 @@
         <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>18</v>
@@ -839,7 +849,7 @@
         <v>300</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
@@ -862,7 +872,7 @@
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>52</v>
@@ -899,14 +909,14 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>52</v>
@@ -939,7 +949,7 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
@@ -975,7 +985,7 @@
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
@@ -1009,7 +1019,7 @@
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
@@ -1043,7 +1053,7 @@
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
@@ -1077,7 +1087,7 @@
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
@@ -1089,13 +1099,13 @@
     </row>
     <row r="10" spans="2:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2">
         <v>307</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
@@ -1111,14 +1121,14 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>52</v>
@@ -1135,7 +1145,7 @@
         <v>308</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>38</v>
@@ -1147,10 +1157,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1188,7 +1198,7 @@
         <v>48</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1207,7 +1217,7 @@
         <v>310</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>15</v>
@@ -1227,15 +1237,17 @@
         <v>40</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M13" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="N13" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="2">
         <v>-4</v>
@@ -1249,7 +1261,7 @@
         <v>311</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>43</v>
@@ -1271,22 +1283,22 @@
         <v>44</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="2">
-        <v>-35</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1317,29 +1329,29 @@
         <v>50</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="2">
         <v>-20</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2">
         <v>313</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
@@ -1355,31 +1367,31 @@
         <v>37</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q16" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2">
         <v>314</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>15</v>
@@ -1391,13 +1403,15 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="O17" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="P17" s="3" t="s">
         <v>52</v>
       </c>
@@ -1405,109 +1419,107 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2">
         <v>315</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="L18" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>52</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:17" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2">
         <v>316</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2">
         <v>317</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>24</v>
@@ -1524,17 +1536,19 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O20" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="P20" s="3" t="s">
         <v>52</v>
       </c>
       <c r="Q20" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Traits_Mod.xlsx
+++ b/Traits_Mod.xlsx
@@ -484,6 +484,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>239837</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>385515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1221440" y="1546412"/>
+          <a:ext cx="228632" cy="228632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -773,126 +816,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q30"/>
+  <dimension ref="C1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="3:18" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>300</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="R3" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="3:18" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>301</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
@@ -906,365 +948,365 @@
       <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="3:18" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>302</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="3:18" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>303</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="3:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>304</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="3:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>305</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="3:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>306</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="3:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>307</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="3:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>308</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="R11" s="2">
         <v>-2</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="3:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>309</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="3:18" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>310</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="R13" s="2">
         <v>-4</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="3:18" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>311</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>43</v>
@@ -1278,159 +1320,159 @@
       <c r="I14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="2">
         <v>-80</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="3:18" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>312</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="3"/>
+      <c r="O15" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="R15" s="2">
         <v>-20</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="3:18" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>313</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="R16" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="3:18" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>314</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="3"/>
+      <c r="P17" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="R17" s="2">
         <v>-4</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="3:18" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>315</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>61</v>
@@ -1444,39 +1486,39 @@
       <c r="I18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3" t="s">
+      <c r="J18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="3"/>
+      <c r="P18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="R18" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="3:18" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>316</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>64</v>
@@ -1490,72 +1532,74 @@
       <c r="I19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="K19" s="3"/>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="R19" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="3:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>317</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="R20" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
+    <row r="21" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1567,13 +1611,13 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1585,13 +1629,13 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1603,13 +1647,13 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1621,13 +1665,13 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1639,13 +1683,13 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1657,13 +1701,13 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1675,13 +1719,13 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1693,13 +1737,13 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1711,13 +1755,13 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1729,11 +1773,13 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="2"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Traits_Mod.xlsx
+++ b/Traits_Mod.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="117">
   <si>
     <t>ID</t>
   </si>
@@ -376,6 +376,30 @@
   <si>
     <t>-5 Greed
 -5 Zeal</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>lucky</t>
+  </si>
+  <si>
+    <t>+1.00</t>
+  </si>
+  <si>
+    <t>+5 Rationality</t>
+  </si>
+  <si>
+    <t>Unlucky</t>
+  </si>
+  <si>
+    <t>unlucky</t>
+  </si>
+  <si>
+    <t>-1.00</t>
+  </si>
+  <si>
+    <t>-5 Rationality</t>
   </si>
 </sst>
 </file>
@@ -818,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,40 +1621,72 @@
       </c>
     </row>
     <row r="21" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="2">
+        <v>318</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="K21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="2"/>
+      <c r="P21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R21" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="C22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="2">
+        <v>319</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="2"/>
+      <c r="P22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R22" s="2">
+        <v>-4</v>
+      </c>
     </row>
     <row r="23" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
